--- a/result.xlsx
+++ b/result.xlsx
@@ -1,37 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Car" sheetId="2" r:id="rId2"/>
+    <sheet name="Motorcycle" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Average speed</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>ambulance</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +92,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,113 +409,1001 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Average speed</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ambulance</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>bicycle</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>bus</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>car</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>44.35882176777624</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>motorcycle</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>48.9311443749782</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>68</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>truck</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45220.67574141831</v>
+      </c>
+      <c r="C2">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45220.67604759315</v>
+      </c>
+      <c r="C3">
+        <v>46.28571428571428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45220.67611744026</v>
+      </c>
+      <c r="C4">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45220.67614999626</v>
+      </c>
+      <c r="C5">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45220.67622921535</v>
+      </c>
+      <c r="C6">
+        <v>54.00000000000019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45220.67638256897</v>
+      </c>
+      <c r="C7">
+        <v>64.80000000000024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45220.67708051838</v>
+      </c>
+      <c r="C8">
+        <v>40.50000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45220.67714493137</v>
+      </c>
+      <c r="C9">
+        <v>41.80645161290331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45220.67721815511</v>
+      </c>
+      <c r="C10">
+        <v>44.6896551724137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45220.67790589231</v>
+      </c>
+      <c r="C11">
+        <v>33.23076923076894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45220.67810099159</v>
+      </c>
+      <c r="C12">
+        <v>46.28571428571409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45220.67869574369</v>
+      </c>
+      <c r="C13">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45220.67917157074</v>
+      </c>
+      <c r="C14">
+        <v>36.00000000000034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45220.67924692776</v>
+      </c>
+      <c r="C15">
+        <v>37.02857142857173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45220.67930268891</v>
+      </c>
+      <c r="C16">
+        <v>44.6896551724137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45220.67934345009</v>
+      </c>
+      <c r="C17">
+        <v>41.80645161290331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45220.6800528455</v>
+      </c>
+      <c r="C18">
+        <v>49.84615384615341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45220.68010075773</v>
+      </c>
+      <c r="C19">
+        <v>44.68965517241502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45220.67579228979</v>
+      </c>
+      <c r="C2">
+        <v>58.90909090909097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45220.67583477177</v>
+      </c>
+      <c r="C3">
+        <v>61.71428571428562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45220.6759868242</v>
+      </c>
+      <c r="C4">
+        <v>49.84615384615382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45220.67599233346</v>
+      </c>
+      <c r="C5">
+        <v>51.84000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45220.6760245215</v>
+      </c>
+      <c r="C6">
+        <v>49.84615384615402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45220.67604318344</v>
+      </c>
+      <c r="C7">
+        <v>56.34782608695633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45220.67606195184</v>
+      </c>
+      <c r="C8">
+        <v>44.6896551724137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45220.6760647237</v>
+      </c>
+      <c r="C9">
+        <v>51.84000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45220.676079039</v>
+      </c>
+      <c r="C10">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45220.67610865249</v>
+      </c>
+      <c r="C11">
+        <v>49.84615384615361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45220.67611853981</v>
+      </c>
+      <c r="C12">
+        <v>38.11764705882354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45220.67624139145</v>
+      </c>
+      <c r="C13">
+        <v>68.21052631578952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45220.67630090131</v>
+      </c>
+      <c r="C14">
+        <v>61.71428571428547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45220.67646447986</v>
+      </c>
+      <c r="C15">
+        <v>54.00000000000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45220.67667571666</v>
+      </c>
+      <c r="C16">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45220.67668227929</v>
+      </c>
+      <c r="C17">
+        <v>26.99999999999985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45220.67700748383</v>
+      </c>
+      <c r="C18">
+        <v>56.34782608695659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45220.67706590003</v>
+      </c>
+      <c r="C19">
+        <v>56.34782608695659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45220.67723101714</v>
+      </c>
+      <c r="C20">
+        <v>47.99999999999969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45220.67724505443</v>
+      </c>
+      <c r="C21">
+        <v>39.27272727272747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45220.67733173471</v>
+      </c>
+      <c r="C22">
+        <v>46.28571428571409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45220.67758713825</v>
+      </c>
+      <c r="C23">
+        <v>19.63636363636362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45220.67768618781</v>
+      </c>
+      <c r="C24">
+        <v>27.57446808510595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45220.67779543339</v>
+      </c>
+      <c r="C25">
+        <v>44.6896551724137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45220.67795642918</v>
+      </c>
+      <c r="C26">
+        <v>64.80000000000092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45220.67797337056</v>
+      </c>
+      <c r="C27">
+        <v>54.00000000000115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45220.67797506036</v>
+      </c>
+      <c r="C28">
+        <v>56.34782608695763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45220.67798271176</v>
+      </c>
+      <c r="C29">
+        <v>54.00000000000115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45220.6779980596</v>
+      </c>
+      <c r="C30">
+        <v>37.02857142857173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45220.67800694848</v>
+      </c>
+      <c r="C31">
+        <v>56.34782608695763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45220.67811349427</v>
+      </c>
+      <c r="C32">
+        <v>53.99999999999923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45220.67813843323</v>
+      </c>
+      <c r="C33">
+        <v>51.83999999999941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45220.67815482118</v>
+      </c>
+      <c r="C34">
+        <v>24.45283018867906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45220.67816351137</v>
+      </c>
+      <c r="C35">
+        <v>72.00000000000068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45220.67817223394</v>
+      </c>
+      <c r="C36">
+        <v>49.84615384615341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45220.67831187031</v>
+      </c>
+      <c r="C37">
+        <v>68.21052631579028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45220.67831684802</v>
+      </c>
+      <c r="C38">
+        <v>46.28571428571409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45220.67833770831</v>
+      </c>
+      <c r="C39">
+        <v>68.21052631579028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45220.67834044853</v>
+      </c>
+      <c r="C40">
+        <v>44.68965517241502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45220.67855668238</v>
+      </c>
+      <c r="C41">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45220.67862637528</v>
+      </c>
+      <c r="C42">
+        <v>38.11764705882378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45220.67895132542</v>
+      </c>
+      <c r="C43">
+        <v>64.79999999999816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45220.67897915553</v>
+      </c>
+      <c r="C44">
+        <v>34.10526315789438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45220.67897971109</v>
+      </c>
+      <c r="C45">
+        <v>61.71428571428672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45220.67899777557</v>
+      </c>
+      <c r="C46">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45220.67916386766</v>
+      </c>
+      <c r="C47">
+        <v>21.24590163934428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45220.6793351356</v>
+      </c>
+      <c r="C48">
+        <v>56.34782608695763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45220.67934789482</v>
+      </c>
+      <c r="C49">
+        <v>61.71428571428422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45220.67936502393</v>
+      </c>
+      <c r="C50">
+        <v>56.34782608695554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45220.6793991939</v>
+      </c>
+      <c r="C51">
+        <v>58.90909090908969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45220.67942459141</v>
+      </c>
+      <c r="C52">
+        <v>54.00000000000115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45220.67958344636</v>
+      </c>
+      <c r="C53">
+        <v>35.02702702702741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45220.67962166056</v>
+      </c>
+      <c r="C54">
+        <v>46.28571428571409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45220.6796602763</v>
+      </c>
+      <c r="C55">
+        <v>34.10526315789514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45220.68001882705</v>
+      </c>
+      <c r="C56">
+        <v>46.28571428571409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45220.68003547837</v>
+      </c>
+      <c r="C57">
+        <v>44.68965517241239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45220.68006857958</v>
+      </c>
+      <c r="C58">
+        <v>41.80645161290215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45220.68009283231</v>
+      </c>
+      <c r="C59">
+        <v>56.34782608695763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45220.68014794235</v>
+      </c>
+      <c r="C60">
+        <v>39.27272727272646</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45220.6801788872</v>
+      </c>
+      <c r="C61">
+        <v>61.71428571428171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45220.68019091357</v>
+      </c>
+      <c r="C62">
+        <v>35.0270270270266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>